--- a/Hands-on Projects/Timesheet Migration/Timesheets/Pascal Govender/Pascal Govender March FINAL.xlsx
+++ b/Hands-on Projects/Timesheet Migration/Timesheets/Pascal Govender/Pascal Govender March FINAL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PascalGovender\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\scGradsGithub\Hands-on Projects\Timesheet Migration\Timesheets\Pascal Govender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E799FC58-EFE9-4C57-AE20-BE8042B05FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C374E278-47F2-430F-A2B2-B893F9B39602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1C8F8026-B005-4B08-94D3-371A77F74D8F}"/>
   </bookViews>
@@ -18,6 +18,9 @@
     <sheet name="Leave" sheetId="9" r:id="rId3"/>
     <sheet name="Key" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="TSheet">Mar!$A$8:$J$136</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -999,7 +1002,7 @@
     <numFmt numFmtId="166" formatCode="_ [$R-1C09]\ * #,##0.00_ ;_ [$R-1C09]\ * \-#,##0.00_ ;_ [$R-1C09]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="[$R-1C09]#,##0.00;\-[$R-1C09]#,##0.00"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2145,6 +2148,118 @@
   </cellStyles>
   <dxfs count="23">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2283,118 +2398,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -2559,23 +2562,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2E876225-7964-4082-91F1-C6221C464408}" name="WorkType" displayName="WorkType" ref="H2:H62" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2E876225-7964-4082-91F1-C6221C464408}" name="WorkType" displayName="WorkType" ref="H2:H62" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="H2:H62" xr:uid="{2E876225-7964-4082-91F1-C6221C464408}"/>
   <tableColumns count="1">
-    <tableColumn id="2" xr3:uid="{234A6588-4DEA-4067-9367-AEAFE02CA40D}" name="Resource" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{234A6588-4DEA-4067-9367-AEAFE02CA40D}" name="Resource" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B149CFBE-03DA-4A5C-8F86-52A53133C863}" name="ProjectTable" displayName="ProjectTable" ref="F2:F39" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B149CFBE-03DA-4A5C-8F86-52A53133C863}" name="ProjectTable" displayName="ProjectTable" ref="F2:F39" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="F2:F39" xr:uid="{B149CFBE-03DA-4A5C-8F86-52A53133C863}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F3:F19">
     <sortCondition ref="F2:F19"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D9788319-59C4-447A-9364-6F4EF6730453}" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D9788319-59C4-447A-9364-6F4EF6730453}" name="Description" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2853,22 +2856,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1366D5-46F5-410C-BC9F-D56DCF566D28}">
   <dimension ref="A5:J146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F135" sqref="F135"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A136" sqref="A8:J136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.875" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="21" customWidth="1"/>
+    <col min="1" max="1" width="19.8984375" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" style="21" customWidth="1"/>
     <col min="4" max="5" width="20" style="21" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="23.09765625" style="21" customWidth="1"/>
     <col min="7" max="7" width="34" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="21"/>
+    <col min="8" max="16384" width="8.69921875" style="21"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
@@ -2878,7 +2881,7 @@
       <c r="C5" s="35"/>
       <c r="H5" s="38"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>2</v>
       </c>
@@ -2892,10 +2895,10 @@
       <c r="H6" s="38"/>
       <c r="J6" s="39"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="25.15">
+    <row r="8" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>3</v>
       </c>
@@ -2927,7 +2930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="29">
         <v>45717</v>
       </c>
@@ -2946,7 +2949,7 @@
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="29">
         <v>45718</v>
       </c>
@@ -2965,7 +2968,7 @@
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="1:10" ht="37.9">
+    <row r="11" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>45719</v>
       </c>
@@ -2998,7 +3001,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="88.15">
+    <row r="12" spans="1:10" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>45719</v>
       </c>
@@ -3031,7 +3034,7 @@
         <v>0.37847222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="75.599999999999994">
+    <row r="13" spans="1:10" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>45719</v>
       </c>
@@ -3064,7 +3067,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="25.15">
+    <row r="14" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>45719</v>
       </c>
@@ -3097,7 +3100,7 @@
         <v>0.58680555555555558</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="25.15">
+    <row r="15" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A15" s="20">
         <v>45719</v>
       </c>
@@ -3130,7 +3133,7 @@
         <v>0.60763888888888884</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="63">
+    <row r="16" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A16" s="20">
         <v>45719</v>
       </c>
@@ -3163,7 +3166,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="63">
+    <row r="17" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A17" s="20">
         <v>45719</v>
       </c>
@@ -3196,7 +3199,7 @@
         <v>0.73124999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="37.9">
+    <row r="18" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A18" s="20">
         <v>45720</v>
       </c>
@@ -3229,7 +3232,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="50.45">
+    <row r="19" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A19" s="20">
         <v>45720</v>
       </c>
@@ -3262,7 +3265,7 @@
         <v>0.39861111111111114</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="50.45">
+    <row r="20" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A20" s="20">
         <v>45720</v>
       </c>
@@ -3295,7 +3298,7 @@
         <v>0.44097222222222221</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="25.15">
+    <row r="21" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A21" s="20">
         <v>45720</v>
       </c>
@@ -3328,7 +3331,7 @@
         <v>0.4465277777777778</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="50.45">
+    <row r="22" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A22" s="20">
         <v>45720</v>
       </c>
@@ -3361,7 +3364,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="37.9">
+    <row r="23" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A23" s="20">
         <v>45720</v>
       </c>
@@ -3394,7 +3397,7 @@
         <v>0.56944444444444442</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="25.15">
+    <row r="24" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A24" s="20">
         <v>45720</v>
       </c>
@@ -3427,7 +3430,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="63">
+    <row r="25" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A25" s="20">
         <v>45720</v>
       </c>
@@ -3460,7 +3463,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="37.9">
+    <row r="26" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A26" s="20">
         <v>45720</v>
       </c>
@@ -3493,7 +3496,7 @@
         <v>0.72361111111111109</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="25.15">
+    <row r="27" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A27" s="20">
         <v>45721</v>
       </c>
@@ -3526,7 +3529,7 @@
         <v>0.34722222222222221</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="25.15">
+    <row r="28" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A28" s="20">
         <v>45721</v>
       </c>
@@ -3559,7 +3562,7 @@
         <v>0.37638888888888888</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="37.9">
+    <row r="29" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A29" s="20">
         <v>45721</v>
       </c>
@@ -3592,7 +3595,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="37.9">
+    <row r="30" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A30" s="20">
         <v>45721</v>
       </c>
@@ -3625,7 +3628,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="50.45">
+    <row r="31" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A31" s="20">
         <v>45721</v>
       </c>
@@ -3658,7 +3661,7 @@
         <v>0.71875</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="25.15">
+    <row r="32" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A32" s="20">
         <v>45722</v>
       </c>
@@ -3691,7 +3694,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="37.9">
+    <row r="33" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A33" s="20">
         <v>45722</v>
       </c>
@@ -3724,7 +3727,7 @@
         <v>0.37291666666666667</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="50.45">
+    <row r="34" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A34" s="20">
         <v>45722</v>
       </c>
@@ -3757,7 +3760,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="63">
+    <row r="35" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A35" s="20">
         <v>45722</v>
       </c>
@@ -3790,7 +3793,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="88.15">
+    <row r="36" spans="1:10" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A36" s="20">
         <v>45722</v>
       </c>
@@ -3823,7 +3826,7 @@
         <v>0.70486111111111116</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="37.9">
+    <row r="37" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A37" s="20">
         <v>45723</v>
       </c>
@@ -3856,7 +3859,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="37.9">
+    <row r="38" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A38" s="20">
         <v>45723</v>
       </c>
@@ -3889,7 +3892,7 @@
         <v>0.41319444444444442</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="50.45">
+    <row r="39" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A39" s="20">
         <v>45723</v>
       </c>
@@ -3922,7 +3925,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="50.45">
+    <row r="40" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A40" s="20">
         <v>45723</v>
       </c>
@@ -3955,7 +3958,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="50.45">
+    <row r="41" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A41" s="20">
         <v>45723</v>
       </c>
@@ -3988,7 +3991,7 @@
         <v>0.72361111111111109</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="29">
         <v>45724</v>
       </c>
@@ -4007,7 +4010,7 @@
       <c r="I42" s="33"/>
       <c r="J42" s="33"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="29">
         <v>45725</v>
       </c>
@@ -4026,7 +4029,7 @@
       <c r="I43" s="33"/>
       <c r="J43" s="33"/>
     </row>
-    <row r="44" spans="1:10" ht="50.45">
+    <row r="44" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A44" s="20">
         <v>45726</v>
       </c>
@@ -4059,7 +4062,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="37.9">
+    <row r="45" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A45" s="20">
         <v>45726</v>
       </c>
@@ -4092,7 +4095,7 @@
         <v>0.37708333333333333</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="50.45">
+    <row r="46" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A46" s="20">
         <v>45726</v>
       </c>
@@ -4125,7 +4128,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="37.9">
+    <row r="47" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A47" s="20">
         <v>45726</v>
       </c>
@@ -4158,7 +4161,7 @@
         <v>0.4861111111111111</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="20">
         <v>45726</v>
       </c>
@@ -4191,7 +4194,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="75.599999999999994">
+    <row r="49" spans="1:10" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A49" s="20">
         <v>45726</v>
       </c>
@@ -4224,7 +4227,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="25.15">
+    <row r="50" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A50" s="20">
         <v>45726</v>
       </c>
@@ -4257,7 +4260,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="37.9">
+    <row r="51" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A51" s="20">
         <v>45726</v>
       </c>
@@ -4290,7 +4293,7 @@
         <v>0.72638888888888886</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="37.9">
+    <row r="52" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A52" s="20">
         <v>45727</v>
       </c>
@@ -4323,7 +4326,7 @@
         <v>0.34375</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="50.45">
+    <row r="53" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A53" s="20">
         <v>45727</v>
       </c>
@@ -4356,7 +4359,7 @@
         <v>0.36944444444444446</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="37.9">
+    <row r="54" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A54" s="20">
         <v>45727</v>
       </c>
@@ -4389,7 +4392,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="37.9">
+    <row r="55" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A55" s="20">
         <v>45727</v>
       </c>
@@ -4422,7 +4425,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="88.15">
+    <row r="56" spans="1:10" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A56" s="20">
         <v>45727</v>
       </c>
@@ -4455,7 +4458,7 @@
         <v>0.73263888888888884</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="25.15">
+    <row r="57" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A57" s="20">
         <v>45728</v>
       </c>
@@ -4488,7 +4491,7 @@
         <v>0.34722222222222221</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="50.45">
+    <row r="58" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A58" s="20">
         <v>45728</v>
       </c>
@@ -4521,7 +4524,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="37.9">
+    <row r="59" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A59" s="20">
         <v>45728</v>
       </c>
@@ -4554,7 +4557,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="37.9">
+    <row r="60" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A60" s="20">
         <v>45728</v>
       </c>
@@ -4587,7 +4590,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="50.45">
+    <row r="61" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A61" s="20">
         <v>45728</v>
       </c>
@@ -4620,7 +4623,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="25.15">
+    <row r="62" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A62" s="20">
         <v>45729</v>
       </c>
@@ -4653,7 +4656,7 @@
         <v>0.34722222222222221</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="37.9">
+    <row r="63" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A63" s="20">
         <v>45729</v>
       </c>
@@ -4686,7 +4689,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="50.45">
+    <row r="64" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A64" s="20">
         <v>45729</v>
       </c>
@@ -4719,7 +4722,7 @@
         <v>0.48472222222222222</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="25.15">
+    <row r="65" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A65" s="20">
         <v>45729</v>
       </c>
@@ -4752,7 +4755,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="63">
+    <row r="66" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A66" s="20">
         <v>45729</v>
       </c>
@@ -4785,7 +4788,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="25.15">
+    <row r="67" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A67" s="20">
         <v>45729</v>
       </c>
@@ -4818,7 +4821,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="37.9">
+    <row r="68" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A68" s="20">
         <v>45729</v>
       </c>
@@ -4851,7 +4854,7 @@
         <v>0.73958333333333337</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="25.15">
+    <row r="69" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A69" s="20">
         <v>45729</v>
       </c>
@@ -4884,7 +4887,7 @@
         <v>0.75347222222222221</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="20">
         <v>45730</v>
       </c>
@@ -4917,7 +4920,7 @@
         <v>0.34722222222222221</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="37.9">
+    <row r="71" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A71" s="20">
         <v>45730</v>
       </c>
@@ -4950,7 +4953,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="63">
+    <row r="72" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A72" s="20">
         <v>45730</v>
       </c>
@@ -4983,7 +4986,7 @@
         <v>0.50902777777777775</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="63">
+    <row r="73" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A73" s="20">
         <v>45730</v>
       </c>
@@ -5016,7 +5019,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="75.599999999999994">
+    <row r="74" spans="1:10" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A74" s="20">
         <v>45730</v>
       </c>
@@ -5049,7 +5052,7 @@
         <v>0.75277777777777777</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="29">
         <v>45731</v>
       </c>
@@ -5068,7 +5071,7 @@
       <c r="I75" s="33"/>
       <c r="J75" s="33"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="29">
         <v>45732</v>
       </c>
@@ -5087,7 +5090,7 @@
       <c r="I76" s="33"/>
       <c r="J76" s="33"/>
     </row>
-    <row r="77" spans="1:10" ht="50.45">
+    <row r="77" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A77" s="20">
         <v>45733</v>
       </c>
@@ -5120,7 +5123,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="20">
         <v>45733</v>
       </c>
@@ -5153,7 +5156,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="25.15">
+    <row r="79" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A79" s="20">
         <v>45733</v>
       </c>
@@ -5186,7 +5189,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="37.9">
+    <row r="80" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A80" s="20">
         <v>45733</v>
       </c>
@@ -5219,7 +5222,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="37.9">
+    <row r="81" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A81" s="20">
         <v>45733</v>
       </c>
@@ -5252,7 +5255,7 @@
         <v>0.72222222222222221</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="25.15">
+    <row r="82" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A82" s="20">
         <v>45734</v>
       </c>
@@ -5285,7 +5288,7 @@
         <v>0.34513888888888888</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="37.9">
+    <row r="83" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A83" s="20">
         <v>45734</v>
       </c>
@@ -5318,7 +5321,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="37.9">
+    <row r="84" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A84" s="20">
         <v>45734</v>
       </c>
@@ -5351,7 +5354,7 @@
         <v>0.50208333333333333</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="37.9">
+    <row r="85" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A85" s="20">
         <v>45734</v>
       </c>
@@ -5384,7 +5387,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="37.9">
+    <row r="86" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A86" s="20">
         <v>45734</v>
       </c>
@@ -5417,7 +5420,7 @@
         <v>0.74861111111111112</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="20">
         <v>45735</v>
       </c>
@@ -5450,7 +5453,7 @@
         <v>0.34583333333333333</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="37.9">
+    <row r="88" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A88" s="20">
         <v>45735</v>
       </c>
@@ -5483,7 +5486,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="25.15">
+    <row r="89" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A89" s="20">
         <v>45735</v>
       </c>
@@ -5516,7 +5519,7 @@
         <v>0.47361111111111109</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="50.45">
+    <row r="90" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A90" s="20">
         <v>45735</v>
       </c>
@@ -5549,7 +5552,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="75.599999999999994">
+    <row r="91" spans="1:10" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A91" s="20">
         <v>45735</v>
       </c>
@@ -5582,7 +5585,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="63">
+    <row r="92" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A92" s="20">
         <v>45735</v>
       </c>
@@ -5615,7 +5618,7 @@
         <v>0.7416666666666667</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="20">
         <v>45736</v>
       </c>
@@ -5648,7 +5651,7 @@
         <v>0.34027777777777779</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="88.15">
+    <row r="94" spans="1:10" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A94" s="20">
         <v>45736</v>
       </c>
@@ -5681,7 +5684,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="63">
+    <row r="95" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A95" s="20">
         <v>45736</v>
       </c>
@@ -5714,7 +5717,7 @@
         <v>0.47569444444444442</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="37.9">
+    <row r="96" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A96" s="20">
         <v>45736</v>
       </c>
@@ -5747,7 +5750,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="25.15">
+    <row r="97" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A97" s="20">
         <v>45736</v>
       </c>
@@ -5780,7 +5783,7 @@
         <v>0.53888888888888886</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="63">
+    <row r="98" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A98" s="20">
         <v>45736</v>
       </c>
@@ -5813,7 +5816,7 @@
         <v>0.65972222222222221</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="63">
+    <row r="99" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A99" s="20">
         <v>45736</v>
       </c>
@@ -5846,7 +5849,7 @@
         <v>0.71250000000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="45">
         <v>45737</v>
       </c>
@@ -5877,7 +5880,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="29">
         <v>45738</v>
       </c>
@@ -5896,7 +5899,7 @@
       <c r="I101" s="33"/>
       <c r="J101" s="33"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="29">
         <v>45739</v>
       </c>
@@ -5915,7 +5918,7 @@
       <c r="I102" s="33"/>
       <c r="J102" s="33"/>
     </row>
-    <row r="103" spans="1:10" ht="50.45">
+    <row r="103" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A103" s="20">
         <v>45740</v>
       </c>
@@ -5948,7 +5951,7 @@
         <v>0.35208333333333336</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="25.15">
+    <row r="104" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A104" s="20">
         <v>45740</v>
       </c>
@@ -5981,7 +5984,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="37.9">
+    <row r="105" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A105" s="20">
         <v>45740</v>
       </c>
@@ -6014,7 +6017,7 @@
         <v>0.50694444444444442</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="37.9">
+    <row r="106" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A106" s="20">
         <v>45740</v>
       </c>
@@ -6047,7 +6050,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="75.599999999999994">
+    <row r="107" spans="1:10" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A107" s="20">
         <v>45740</v>
       </c>
@@ -6080,7 +6083,7 @@
         <v>0.7319444444444444</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="20">
         <v>45741</v>
       </c>
@@ -6113,7 +6116,7 @@
         <v>0.34722222222222221</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="63">
+    <row r="109" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A109" s="20">
         <v>45741</v>
       </c>
@@ -6146,7 +6149,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="37.9">
+    <row r="110" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A110" s="20">
         <v>45741</v>
       </c>
@@ -6179,7 +6182,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="37.9">
+    <row r="111" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A111" s="20">
         <v>45741</v>
       </c>
@@ -6212,7 +6215,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="63">
+    <row r="112" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A112" s="20">
         <v>45741</v>
       </c>
@@ -6245,7 +6248,7 @@
         <v>0.7416666666666667</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="20">
         <v>45742</v>
       </c>
@@ -6278,7 +6281,7 @@
         <v>0.34722222222222221</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="50.45">
+    <row r="114" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A114" s="20">
         <v>45742</v>
       </c>
@@ -6311,7 +6314,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="20">
         <v>45742</v>
       </c>
@@ -6344,7 +6347,7 @@
         <v>0.50416666666666665</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="63">
+    <row r="116" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A116" s="20">
         <v>45742</v>
       </c>
@@ -6377,7 +6380,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="75.599999999999994">
+    <row r="117" spans="1:10" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A117" s="20">
         <v>45742</v>
       </c>
@@ -6410,7 +6413,7 @@
         <v>0.72777777777777775</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="20">
         <v>45743</v>
       </c>
@@ -6443,7 +6446,7 @@
         <v>0.34444444444444444</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="63">
+    <row r="119" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A119" s="20">
         <v>45743</v>
       </c>
@@ -6476,7 +6479,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="25.15">
+    <row r="120" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A120" s="20">
         <v>45743</v>
       </c>
@@ -6509,7 +6512,7 @@
         <v>0.51736111111111116</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="25.15">
+    <row r="121" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A121" s="20">
         <v>45743</v>
       </c>
@@ -6542,7 +6545,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="25.15">
+    <row r="122" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A122" s="20">
         <v>45743</v>
       </c>
@@ -6575,7 +6578,7 @@
         <v>0.73958333333333337</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="20">
         <v>45744</v>
       </c>
@@ -6608,7 +6611,7 @@
         <v>0.34722222222222221</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="25.15">
+    <row r="124" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A124" s="20">
         <v>45744</v>
       </c>
@@ -6641,7 +6644,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="25.15">
+    <row r="125" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A125" s="20">
         <v>45744</v>
       </c>
@@ -6674,7 +6677,7 @@
         <v>0.4826388888888889</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="20">
         <v>45744</v>
       </c>
@@ -6707,7 +6710,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="63">
+    <row r="127" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A127" s="20">
         <v>45744</v>
       </c>
@@ -6740,7 +6743,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="25.15">
+    <row r="128" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A128" s="20">
         <v>45744</v>
       </c>
@@ -6773,7 +6776,7 @@
         <v>0.7319444444444444</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="29">
         <v>45745</v>
       </c>
@@ -6792,7 +6795,7 @@
       <c r="I129" s="33"/>
       <c r="J129" s="33"/>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="29">
         <v>45746</v>
       </c>
@@ -6811,7 +6814,7 @@
       <c r="I130" s="33"/>
       <c r="J130" s="33"/>
     </row>
-    <row r="131" spans="1:10" ht="50.45">
+    <row r="131" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A131" s="20">
         <v>45747</v>
       </c>
@@ -6844,7 +6847,7 @@
         <v>0.34722222222222221</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="63">
+    <row r="132" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A132" s="20">
         <v>45747</v>
       </c>
@@ -6877,7 +6880,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="37.9">
+    <row r="133" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A133" s="20">
         <v>45747</v>
       </c>
@@ -6910,7 +6913,7 @@
         <v>0.47638888888888886</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="25.15">
+    <row r="134" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A134" s="20">
         <v>45747</v>
       </c>
@@ -6943,7 +6946,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="37.9">
+    <row r="135" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A135" s="20">
         <v>45747</v>
       </c>
@@ -6976,7 +6979,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="43.9" customHeight="1">
+    <row r="136" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="20">
         <v>45747</v>
       </c>
@@ -7009,7 +7012,7 @@
         <v>0.73124999999999996</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="137" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="43"/>
@@ -7020,7 +7023,7 @@
       <c r="H137" s="34"/>
       <c r="I137" s="35"/>
     </row>
-    <row r="138" spans="1:10" ht="13.9" customHeight="1">
+    <row r="138" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="3"/>
@@ -7034,7 +7037,7 @@
       </c>
       <c r="H138" s="38"/>
     </row>
-    <row r="139" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="139" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="7"/>
@@ -7047,7 +7050,7 @@
       </c>
       <c r="H139" s="38"/>
     </row>
-    <row r="140" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="140" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="107" t="s">
         <v>146</v>
       </c>
@@ -7058,7 +7061,7 @@
       <c r="F140" s="1"/>
       <c r="H140" s="38"/>
     </row>
-    <row r="141" spans="1:10" ht="13.9">
+    <row r="141" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="4"/>
@@ -7072,7 +7075,7 @@
       </c>
       <c r="H141" s="36"/>
     </row>
-    <row r="142" spans="1:10" ht="15" customHeight="1" thickBot="1">
+    <row r="142" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="108" t="s">
         <v>148</v>
       </c>
@@ -7088,7 +7091,7 @@
       </c>
       <c r="H142" s="38"/>
     </row>
-    <row r="143" spans="1:10" ht="14.45" thickBot="1">
+    <row r="143" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -7102,7 +7105,7 @@
       </c>
       <c r="H143" s="38"/>
     </row>
-    <row r="144" spans="1:10" ht="13.9" thickBot="1">
+    <row r="144" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -7111,7 +7114,7 @@
       <c r="F144" s="1"/>
       <c r="H144" s="38"/>
     </row>
-    <row r="145" spans="1:8" ht="13.9" thickBot="1">
+    <row r="145" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -7122,7 +7125,7 @@
       <c r="F145" s="19"/>
       <c r="H145" s="38"/>
     </row>
-    <row r="146" spans="1:8" ht="13.15" thickBot="1">
+    <row r="146" spans="1:8" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E146" s="37"/>
       <c r="H146" s="38"/>
     </row>
@@ -7133,56 +7136,56 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A6:B6 D6:E7 D137:E138">
-    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="11" priority="18" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B146">
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="Saturday">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Saturday">
       <formula>NOT(ISERROR(SEARCH("Saturday",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="Sunday">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Sunday">
       <formula>NOT(ISERROR(SEARCH("Sunday",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D140:E142 E145">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",D140)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",D140)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",D140)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",D140)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",D140)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",D140)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7239,18 +7242,18 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="21" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="21"/>
-    <col min="5" max="5" width="13.25" style="21" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" style="21"/>
+    <col min="5" max="5" width="13.19921875" style="21" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="21" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="21"/>
+    <col min="7" max="16384" width="8.69921875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.5" customHeight="1">
+    <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="90"/>
       <c r="B1" s="90"/>
       <c r="C1" s="90"/>
@@ -7258,7 +7261,7 @@
       <c r="E1" s="90"/>
       <c r="F1" s="90"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="89"/>
       <c r="B2" s="89"/>
       <c r="C2" s="94"/>
@@ -7266,7 +7269,7 @@
       <c r="E2" s="94"/>
       <c r="F2" s="94"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="89"/>
       <c r="B3" s="89"/>
       <c r="C3" s="95"/>
@@ -7274,7 +7277,7 @@
       <c r="E3" s="95"/>
       <c r="F3" s="95"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="89"/>
       <c r="B4" s="89"/>
       <c r="C4" s="96"/>
@@ -7282,7 +7285,7 @@
       <c r="E4" s="96"/>
       <c r="F4" s="96"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
@@ -7294,7 +7297,7 @@
       <c r="E5" s="96"/>
       <c r="F5" s="96"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="89" t="s">
         <v>153</v>
       </c>
@@ -7307,7 +7310,7 @@
       <c r="E6" s="95"/>
       <c r="F6" s="95"/>
     </row>
-    <row r="7" spans="1:15" ht="13.5" customHeight="1">
+    <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="83"/>
       <c r="B7" s="84"/>
       <c r="C7" s="84"/>
@@ -7315,7 +7318,7 @@
       <c r="E7" s="95"/>
       <c r="F7" s="95"/>
     </row>
-    <row r="8" spans="1:15" ht="27.4" customHeight="1">
+    <row r="8" spans="1:15" ht="27.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="114" t="s">
         <v>154</v>
       </c>
@@ -7325,7 +7328,7 @@
       <c r="E8" s="114"/>
       <c r="F8" s="114"/>
     </row>
-    <row r="9" spans="1:15" ht="13.5" customHeight="1" thickBot="1">
+    <row r="9" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="92" t="s">
         <v>155</v>
       </c>
@@ -7341,7 +7344,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="88">
         <v>45566</v>
       </c>
@@ -7368,7 +7371,7 @@
       <c r="N10" s="110"/>
       <c r="O10" s="110"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="88">
         <v>45566</v>
       </c>
@@ -7382,7 +7385,7 @@
       <c r="E11" s="113"/>
       <c r="F11" s="87"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="88">
         <v>45566</v>
       </c>
@@ -7394,7 +7397,7 @@
       <c r="E12" s="113"/>
       <c r="F12" s="87"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="88">
         <v>45566</v>
       </c>
@@ -7404,7 +7407,7 @@
       <c r="E13" s="113"/>
       <c r="F13" s="87"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="88">
         <v>45566</v>
       </c>
@@ -7414,7 +7417,7 @@
       <c r="E14" s="113"/>
       <c r="F14" s="87"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="88">
         <v>45566</v>
       </c>
@@ -7424,7 +7427,7 @@
       <c r="E15" s="113"/>
       <c r="F15" s="87"/>
     </row>
-    <row r="16" spans="1:15" ht="13.15" thickBot="1">
+    <row r="16" spans="1:15" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="88">
         <v>45566</v>
       </c>
@@ -7434,7 +7437,7 @@
       <c r="E16" s="113"/>
       <c r="F16" s="87"/>
     </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1" thickBot="1">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="117" t="s">
         <v>165</v>
       </c>
@@ -7447,7 +7450,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="83"/>
       <c r="B18" s="84"/>
       <c r="C18" s="84"/>
@@ -7510,19 +7513,19 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="21" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="21"/>
+    <col min="2" max="2" width="11.69921875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="21"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="122"/>
       <c r="B4" s="122"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
@@ -7530,23 +7533,23 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="89" t="s">
         <v>166</v>
       </c>
       <c r="B6" s="89"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="105" t="s">
         <v>167</v>
       </c>
       <c r="B7" s="105"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="106"/>
       <c r="B8" s="95"/>
     </row>
-    <row r="9" spans="1:6" ht="27.4" customHeight="1">
+    <row r="9" spans="1:6" ht="27.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="135" t="s">
         <v>168</v>
       </c>
@@ -7556,7 +7559,7 @@
       <c r="E9" s="135"/>
       <c r="F9" s="135"/>
     </row>
-    <row r="10" spans="1:6" ht="25.15">
+    <row r="10" spans="1:6" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A10" s="97" t="s">
         <v>169</v>
       </c>
@@ -7576,7 +7579,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="97"/>
       <c r="B11" s="97"/>
       <c r="C11" s="97"/>
@@ -7584,7 +7587,7 @@
       <c r="E11" s="97"/>
       <c r="F11" s="97"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="97"/>
       <c r="B12" s="97"/>
       <c r="C12" s="97"/>
@@ -7592,7 +7595,7 @@
       <c r="E12" s="97"/>
       <c r="F12" s="97"/>
     </row>
-    <row r="13" spans="1:6" ht="13.15" thickBot="1">
+    <row r="13" spans="1:6" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="97"/>
       <c r="B13" s="97"/>
       <c r="C13" s="97"/>
@@ -7600,7 +7603,7 @@
       <c r="E13" s="97"/>
       <c r="F13" s="97"/>
     </row>
-    <row r="14" spans="1:6" ht="13.15" thickBot="1">
+    <row r="14" spans="1:6" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="98"/>
       <c r="B14" s="99"/>
       <c r="C14" s="99"/>
@@ -7611,7 +7614,7 @@
       <c r="E14" s="99"/>
       <c r="F14" s="101"/>
     </row>
-    <row r="15" spans="1:6" ht="13.15" thickBot="1">
+    <row r="15" spans="1:6" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="126"/>
       <c r="B15" s="127"/>
       <c r="C15" s="127"/>
@@ -7619,7 +7622,7 @@
       <c r="E15" s="127"/>
       <c r="F15" s="127"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="136" t="s">
         <v>175</v>
       </c>
@@ -7629,7 +7632,7 @@
       <c r="E16" s="137"/>
       <c r="F16" s="138"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="123"/>
       <c r="B17" s="124"/>
       <c r="C17" s="124"/>
@@ -7637,7 +7640,7 @@
       <c r="E17" s="124"/>
       <c r="F17" s="125"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="123"/>
       <c r="B18" s="124"/>
       <c r="C18" s="124"/>
@@ -7645,7 +7648,7 @@
       <c r="E18" s="124"/>
       <c r="F18" s="125"/>
     </row>
-    <row r="19" spans="1:6" ht="13.15" thickBot="1">
+    <row r="19" spans="1:6" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="126"/>
       <c r="B19" s="127"/>
       <c r="C19" s="127"/>
@@ -7653,8 +7656,8 @@
       <c r="E19" s="127"/>
       <c r="F19" s="128"/>
     </row>
-    <row r="20" spans="1:6" ht="13.15" thickBot="1"/>
-    <row r="21" spans="1:6">
+    <row r="20" spans="1:6" ht="13.2" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="102" t="s">
         <v>3</v>
       </c>
@@ -7664,7 +7667,7 @@
       <c r="E21" s="129"/>
       <c r="F21" s="130"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="103" t="s">
         <v>176</v>
       </c>
@@ -7674,7 +7677,7 @@
       <c r="E22" s="131"/>
       <c r="F22" s="132"/>
     </row>
-    <row r="23" spans="1:6" ht="13.15" thickBot="1">
+    <row r="23" spans="1:6" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="104" t="s">
         <v>177</v>
       </c>
@@ -7743,18 +7746,18 @@
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="50"/>
+    <col min="1" max="1" width="8.69921875" style="50"/>
     <col min="2" max="2" width="25.5" style="50" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="50"/>
-    <col min="4" max="4" width="19.25" style="50" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="50"/>
-    <col min="6" max="6" width="21.75" style="50" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="50"/>
+    <col min="3" max="3" width="8.69921875" style="50"/>
+    <col min="4" max="4" width="19.19921875" style="50" customWidth="1"/>
+    <col min="5" max="5" width="8.69921875" style="50"/>
+    <col min="6" max="6" width="21.69921875" style="50" customWidth="1"/>
+    <col min="7" max="16384" width="8.69921875" style="50"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15" thickBot="1">
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="71" t="s">
         <v>16</v>
       </c>
@@ -7771,7 +7774,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="71" t="s">
         <v>181</v>
       </c>
@@ -7788,7 +7791,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="71" t="s">
         <v>185</v>
       </c>
@@ -7805,7 +7808,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="71" t="s">
         <v>189</v>
       </c>
@@ -7819,7 +7822,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="71" t="s">
         <v>193</v>
       </c>
@@ -7833,7 +7836,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="71" t="s">
         <v>197</v>
       </c>
@@ -7847,7 +7850,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="71" t="s">
         <v>201</v>
       </c>
@@ -7864,7 +7867,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="71" t="s">
         <v>206</v>
       </c>
@@ -7881,7 +7884,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="71" t="s">
         <v>210</v>
       </c>
@@ -7895,7 +7898,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="71" t="s">
         <v>214</v>
       </c>
@@ -7912,7 +7915,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="71" t="s">
         <v>219</v>
       </c>
@@ -7926,7 +7929,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="71" t="s">
         <v>223</v>
       </c>
@@ -7937,7 +7940,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="71" t="s">
         <v>226</v>
       </c>
@@ -7949,7 +7952,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="71" t="s">
         <v>228</v>
       </c>
@@ -7961,7 +7964,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="71" t="s">
         <v>231</v>
       </c>
@@ -7973,7 +7976,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="27.6">
+    <row r="17" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B17" s="71" t="s">
         <v>234</v>
       </c>
@@ -7985,7 +7988,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="71" t="s">
         <v>237</v>
       </c>
@@ -7997,7 +8000,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="71" t="s">
         <v>240</v>
       </c>
@@ -8009,7 +8012,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="71" t="s">
         <v>242</v>
       </c>
@@ -8021,7 +8024,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="71" t="s">
         <v>245</v>
       </c>
@@ -8033,7 +8036,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="71" t="s">
         <v>248</v>
       </c>
@@ -8045,7 +8048,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="71" t="s">
         <v>251</v>
       </c>
@@ -8057,7 +8060,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="71" t="s">
         <v>254</v>
       </c>
@@ -8069,7 +8072,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="71" t="s">
         <v>256</v>
       </c>
@@ -8081,7 +8084,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="71" t="s">
         <v>259</v>
       </c>
@@ -8092,7 +8095,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="71" t="s">
         <v>262</v>
       </c>
@@ -8104,7 +8107,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="71" t="s">
         <v>265</v>
       </c>
@@ -8116,7 +8119,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="71" t="s">
         <v>268</v>
       </c>
@@ -8127,7 +8130,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="71" t="s">
         <v>271</v>
       </c>
@@ -8138,7 +8141,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="71" t="s">
         <v>274</v>
       </c>
@@ -8149,7 +8152,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="71" t="s">
         <v>277</v>
       </c>
@@ -8160,7 +8163,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="71" t="s">
         <v>280</v>
       </c>
@@ -8171,7 +8174,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="71" t="s">
         <v>283</v>
       </c>
@@ -8182,7 +8185,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="71" t="s">
         <v>286</v>
       </c>
@@ -8193,7 +8196,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="71" t="s">
         <v>289</v>
       </c>
@@ -8204,7 +8207,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="71" t="s">
         <v>292</v>
       </c>
@@ -8215,7 +8218,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="71" t="s">
         <v>295</v>
       </c>
@@ -8226,7 +8229,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="71" t="s">
         <v>297</v>
       </c>
@@ -8237,7 +8240,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="71" t="s">
         <v>300</v>
       </c>
@@ -8245,107 +8248,107 @@
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="62"/>
       <c r="D41" s="63"/>
       <c r="H41" s="72" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="60"/>
       <c r="H42" s="79" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H43" s="78" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="61"/>
       <c r="H44" s="79" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H45" s="79" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H46" s="79" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="61"/>
       <c r="H47" s="79" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H48" s="78" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="49" spans="8:8">
+    <row r="49" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H49" s="78" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="50" spans="8:8">
+    <row r="50" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H50" s="78" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="51" spans="8:8">
+    <row r="51" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H51" s="78" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="52" spans="8:8">
+    <row r="52" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H52" s="65" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="53" spans="8:8">
+    <row r="53" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H53" s="64" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="54" spans="8:8">
+    <row r="54" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H54" s="65" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="8:8" ht="15" thickBot="1">
+    <row r="55" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H55" s="66" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="56" spans="8:8" ht="15" thickBot="1">
+    <row r="56" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H56" s="70" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="8:8" ht="15" thickBot="1">
+    <row r="57" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H57" s="70"/>
     </row>
-    <row r="58" spans="8:8" ht="15" thickBot="1">
+    <row r="58" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H58" s="67"/>
     </row>
-    <row r="59" spans="8:8" ht="15" thickBot="1">
+    <row r="59" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H59" s="67"/>
     </row>
-    <row r="60" spans="8:8" ht="15" thickBot="1">
+    <row r="60" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H60" s="68"/>
     </row>
-    <row r="61" spans="8:8" ht="15" thickBot="1">
+    <row r="61" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H61" s="69"/>
     </row>
-    <row r="62" spans="8:8" ht="15" thickBot="1">
+    <row r="62" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H62" s="67"/>
     </row>
   </sheetData>
@@ -8579,15 +8582,41 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A043234B-E69A-4B0A-9E68-21362C69E260}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A043234B-E69A-4B0A-9E68-21362C69E260}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d277ce56-8de3-43c1-b9ce-ff5033dad840"/>
+    <ds:schemaRef ds:uri="0b8b2123-f09a-47bf-9044-f6e489c8d7a1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA438C2-50D6-4A10-AE26-1A350E5F8B3C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA438C2-50D6-4A10-AE26-1A350E5F8B3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d277ce56-8de3-43c1-b9ce-ff5033dad840"/>
+    <ds:schemaRef ds:uri="0b8b2123-f09a-47bf-9044-f6e489c8d7a1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2043CFB1-C42B-4B11-9EE4-AD589A931692}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2043CFB1-C42B-4B11-9EE4-AD589A931692}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Hands-on Projects/Timesheet Migration/Timesheets/Pascal Govender/Pascal Govender March FINAL.xlsx
+++ b/Hands-on Projects/Timesheet Migration/Timesheets/Pascal Govender/Pascal Govender March FINAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\scGradsGithub\Hands-on Projects\Timesheet Migration\Timesheets\Pascal Govender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C374E278-47F2-430F-A2B2-B893F9B39602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7C93E0-AD22-4ADA-BCD0-11755927BA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1C8F8026-B005-4B08-94D3-371A77F74D8F}"/>
+    <workbookView xWindow="744" yWindow="1212" windowWidth="17280" windowHeight="8880" xr2:uid="{1C8F8026-B005-4B08-94D3-371A77F74D8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Mar" sheetId="6" r:id="rId1"/>
@@ -2856,7 +2856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1366D5-46F5-410C-BC9F-D56DCF566D28}">
   <dimension ref="A5:J146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A136" sqref="A8:J136"/>
     </sheetView>
   </sheetViews>
